--- a/commands/DockerCommands.xlsx
+++ b/commands/DockerCommands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\A DOCKER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itikhonov\Desktop\Git\devops\docker-master\docker-master\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BF23B6-B59A-41FA-A592-41652B5D9276}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7B47E9-FC90-4DF8-8738-4811C89575DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4959BED2-FCFC-4802-A209-42389E9A29AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4959BED2-FCFC-4802-A209-42389E9A29AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>docker -v</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Выйти из контейнера</t>
+  </si>
+  <si>
+    <t>docker network create -d bridge my-bridge-network</t>
+  </si>
+  <si>
+    <t>Создание сети my-bridge-network c драйвером сети bridge</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -231,23 +237,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -256,17 +302,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -282,9 +333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -428,7 +479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -578,190 +629,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEF6D7E-7FA6-4794-97F4-E1462C58D171}">
-  <dimension ref="F3:G27"/>
+  <dimension ref="F3:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G27"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="49.21875" customWidth="1"/>
-    <col min="7" max="7" width="70.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.1796875" customWidth="1"/>
+    <col min="7" max="7" width="70.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="6:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="F4" s="5" t="s">
+    <row r="3" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="6:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F5" s="3" t="s">
+    <row r="5" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F6" s="3" t="s">
+    <row r="6" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F9" s="3"/>
+    <row r="9" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F10" s="3" t="s">
+    <row r="10" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F12" s="3" t="s">
+    <row r="12" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="3" t="s">
+    <row r="14" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="3"/>
+    <row r="15" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F16" s="3" t="s">
+    <row r="16" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" s="3"/>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="3"/>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="3" t="s">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F23" s="3"/>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F24" s="3" t="s">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26" s="3" t="s">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="4" t="s">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="6" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/commands/DockerCommands.xlsx
+++ b/commands/DockerCommands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itikhonov\Desktop\Git\devops\docker-master\docker-master\commands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itikhonov\Desktop\Git\devops\Docker\docker-master\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7B47E9-FC90-4DF8-8738-4811C89575DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E68530-1F13-4690-972A-6BA9C361B3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4959BED2-FCFC-4802-A209-42389E9A29AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>docker -v</t>
   </si>
@@ -145,6 +145,48 @@
   </si>
   <si>
     <t>Создание сети my-bridge-network c драйвером сети bridge</t>
+  </si>
+  <si>
+    <t>docker-compose build</t>
+  </si>
+  <si>
+    <t>Собрать проект</t>
+  </si>
+  <si>
+    <t>docker-compose up</t>
+  </si>
+  <si>
+    <t>Запуск проекта</t>
+  </si>
+  <si>
+    <t>docker-compose down</t>
+  </si>
+  <si>
+    <t>Эта команда позволяет останавливать и удалять контейнеры и другие ресурсы</t>
+  </si>
+  <si>
+    <t>docker-compose logs -f [service name]</t>
+  </si>
+  <si>
+    <t>Эта команда выводит журналы сервисов</t>
+  </si>
+  <si>
+    <t>docker-compose ps</t>
+  </si>
+  <si>
+    <t>Вывести список контейнеров</t>
+  </si>
+  <si>
+    <t>docker-compose images</t>
+  </si>
+  <si>
+    <t>Вывести список образов</t>
+  </si>
+  <si>
+    <t>docker-compose exec [service name] [command]</t>
+  </si>
+  <si>
+    <t>Позволяет выполнить команду в выполняющемся контейнере</t>
   </si>
 </sst>
 </file>
@@ -302,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -315,6 +357,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -629,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEF6D7E-7FA6-4794-97F4-E1462C58D171}">
-  <dimension ref="F3:G34"/>
+  <dimension ref="F3:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -827,24 +871,60 @@
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="F30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+      <c r="F31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
+      <c r="F32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+      <c r="F33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
